--- a/Gadoura/Burned Areas/jpgs/ocr.xlsx
+++ b/Gadoura/Burned Areas/jpgs/ocr.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,10 @@
         <v>2023</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         <v>2023</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         <v>2023</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -493,10 +493,10 @@
         <v>2023</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +507,10 @@
         <v>2023</v>
       </c>
       <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -521,10 +521,10 @@
         <v>2023</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         <v>2023</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -549,10 +549,10 @@
         <v>2023</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -563,10 +563,10 @@
         <v>2023</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -577,10 +577,10 @@
         <v>2023</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -591,10 +591,10 @@
         <v>2023</v>
       </c>
       <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
         <v>9</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -605,10 +605,10 @@
         <v>2023</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -619,10 +619,10 @@
         <v>2023</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -633,10 +633,10 @@
         <v>2023</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -647,10 +647,10 @@
         <v>2023</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         <v>2023</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -675,10 +675,10 @@
         <v>2023</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -689,10 +689,10 @@
         <v>2023</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -703,10 +703,10 @@
         <v>2023</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -717,10 +717,10 @@
         <v>2023</v>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -731,10 +731,10 @@
         <v>2023</v>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -745,10 +745,10 @@
         <v>2023</v>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -759,10 +759,10 @@
         <v>2023</v>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -773,10 +773,10 @@
         <v>2023</v>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -784,13 +784,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -798,13 +798,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -812,13 +812,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -826,13 +826,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -840,13 +840,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -854,13 +854,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
@@ -868,13 +868,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -882,13 +882,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D33" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -896,13 +896,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -910,13 +910,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -924,13 +924,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -938,13 +938,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -952,13 +952,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
@@ -966,13 +966,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -980,13 +980,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C40" t="n">
+        <v>11</v>
+      </c>
+      <c r="D40" t="n">
         <v>5</v>
-      </c>
-      <c r="D40" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -994,13 +994,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -1008,13 +1008,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -1022,13 +1022,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
@@ -1039,10 +1039,10 @@
         <v>2024</v>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -1053,10 +1053,10 @@
         <v>2024</v>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
@@ -1067,10 +1067,10 @@
         <v>2024</v>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
@@ -1081,10 +1081,10 @@
         <v>2024</v>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -1095,10 +1095,10 @@
         <v>2024</v>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -1109,10 +1109,10 @@
         <v>2024</v>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -1123,10 +1123,10 @@
         <v>2024</v>
       </c>
       <c r="C50" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -1137,10 +1137,10 @@
         <v>2024</v>
       </c>
       <c r="C51" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -1151,10 +1151,10 @@
         <v>2024</v>
       </c>
       <c r="C52" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53">
@@ -1165,10 +1165,10 @@
         <v>2024</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
@@ -1179,10 +1179,10 @@
         <v>2024</v>
       </c>
       <c r="C54" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -1193,10 +1193,10 @@
         <v>2024</v>
       </c>
       <c r="C55" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -1207,10 +1207,10 @@
         <v>2024</v>
       </c>
       <c r="C56" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
@@ -1221,10 +1221,10 @@
         <v>2024</v>
       </c>
       <c r="C57" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -1235,10 +1235,10 @@
         <v>2024</v>
       </c>
       <c r="C58" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" t="n">
         <v>8</v>
-      </c>
-      <c r="D58" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="59">
@@ -1249,10 +1249,10 @@
         <v>2024</v>
       </c>
       <c r="C59" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -1263,10 +1263,10 @@
         <v>2024</v>
       </c>
       <c r="C60" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
@@ -1277,10 +1277,10 @@
         <v>2024</v>
       </c>
       <c r="C61" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
@@ -1291,10 +1291,10 @@
         <v>2024</v>
       </c>
       <c r="C62" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
@@ -1305,10 +1305,10 @@
         <v>2024</v>
       </c>
       <c r="C63" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -1319,10 +1319,10 @@
         <v>2024</v>
       </c>
       <c r="C64" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
@@ -1333,10 +1333,10 @@
         <v>2024</v>
       </c>
       <c r="C65" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
@@ -1347,10 +1347,10 @@
         <v>2024</v>
       </c>
       <c r="C66" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
@@ -1361,10 +1361,10 @@
         <v>2024</v>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -1375,10 +1375,10 @@
         <v>2024</v>
       </c>
       <c r="C68" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D68" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -1389,10 +1389,10 @@
         <v>2024</v>
       </c>
       <c r="C69" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D69" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -1403,10 +1403,10 @@
         <v>2024</v>
       </c>
       <c r="C70" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D70" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -1417,10 +1417,10 @@
         <v>2024</v>
       </c>
       <c r="C71" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D71" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72">
@@ -1431,10 +1431,10 @@
         <v>2024</v>
       </c>
       <c r="C72" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D72" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
@@ -1445,10 +1445,10 @@
         <v>2024</v>
       </c>
       <c r="C73" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D73" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1459,10 +1459,10 @@
         <v>2024</v>
       </c>
       <c r="C74" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D74" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -1470,13 +1470,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D75" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
@@ -1484,13 +1484,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D76" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -1498,13 +1498,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
@@ -1512,12 +1512,269 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C78" t="n">
+        <v>8</v>
+      </c>
+      <c r="D78" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C79" t="n">
+        <v>8</v>
+      </c>
+      <c r="D79" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C80" t="n">
+        <v>9</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C81" t="n">
+        <v>9</v>
+      </c>
+      <c r="D81" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C82" t="n">
+        <v>9</v>
+      </c>
+      <c r="D82" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C83" t="n">
+        <v>9</v>
+      </c>
+      <c r="D83" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C84" t="n">
+        <v>9</v>
+      </c>
+      <c r="D84" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C85" t="n">
+        <v>10</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C86" t="n">
+        <v>10</v>
+      </c>
+      <c r="D86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C88" t="n">
+        <v>10</v>
+      </c>
+      <c r="D88" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C89" t="n">
+        <v>11</v>
+      </c>
+      <c r="D89" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C90" t="n">
+        <v>11</v>
+      </c>
+      <c r="D90" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C91" t="n">
+        <v>11</v>
+      </c>
+      <c r="D91" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C92" t="n">
+        <v>12</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C93" t="n">
+        <v>12</v>
+      </c>
+      <c r="D93" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
         <v>2025</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C96" t="n">
         <v>2</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" t="n">
         <v>7</v>
       </c>
     </row>
